--- a/EPORTAL/UploadedFiles/DKHocATEX/BM_Đăng ký thẻ người.xlsx
+++ b/EPORTAL/UploadedFiles/DKHocATEX/BM_Đăng ký thẻ người.xlsx
@@ -1,35 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thienld\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuocnv1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F59F86-9C7B-480C-BAA4-92FE73F361F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B284B1-8CCD-4D8B-AEFE-71D40931AEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BM" sheetId="1" r:id="rId1"/>
-    <sheet name="Dữ liệu đăng ký" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="DL" sheetId="3" r:id="rId2"/>
+    <sheet name="Dữ liệu đăng ký" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BM!$A$1:$T$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BM!$A$1:$T$7</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
+  <si>
+    <t>BM.03A/QT.20
+Ngày hiệu lực: 30/11/2024
+Lần sửa đổi: 02</t>
+  </si>
   <si>
     <t>ĐƠN ĐỀ NGHỊ CẤP LẠI/ GIA HẠN/ ĐIỀU CHỈNH THÔNG TIN THẺ NGƯỜI</t>
   </si>
@@ -63,6 +78,10 @@
  những ô cần chọn</t>
   </si>
   <si>
+    <t>Điện thoại thông minh
+(Đánh dấu "X" nếu đăng ký)"</t>
+  </si>
+  <si>
     <t>Thời hạn thẻ</t>
   </si>
   <si>
@@ -72,9 +91,6 @@
     <t>Cổng đăng ký ra/vào</t>
   </si>
   <si>
-    <t>Nhóm nhà thầu</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -108,24 +124,216 @@
     <t>2. HPDQ1 -  NHÀ MÁY LUYỆN CỐC</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>KHU VỰC LÀM VIỆC</t>
+  </si>
+  <si>
+    <t>CHỨC VỤ</t>
+  </si>
+  <si>
+    <t>CỔNG ĐĂNG KÝ RA/VÀO</t>
+  </si>
+  <si>
+    <t>Hành chính (HC)</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY NGUYÊN LIỆU</t>
+  </si>
+  <si>
+    <t>Ban Giám đốc NT</t>
+  </si>
+  <si>
+    <t>Cổng Trì Bình 2</t>
+  </si>
+  <si>
+    <t>Ca ngày (CN)</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY LUYỆN CỐC</t>
+  </si>
+  <si>
+    <t>Chỉ huy trưởng</t>
+  </si>
+  <si>
+    <t>Cổng Trì Bình 1</t>
+  </si>
+  <si>
+    <t>Ca đêm (CĐ)</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY LUYỆN GANG</t>
+  </si>
+  <si>
+    <t>Chỉ huy phó</t>
+  </si>
+  <si>
+    <t>Cổng Cảng Tổng Hợp</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY NHIỆT ĐIỆN</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Cổng Hào Hưng - HPDQ1</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY THIÊU KẾT VÊ VIÊN</t>
+  </si>
+  <si>
+    <t>Kỹ sư</t>
+  </si>
+  <si>
+    <t>Cổng DQS - HPDQ1</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY VÔI XI MĂNG (KHÔNG SỬ DỤNG)</t>
+  </si>
+  <si>
+    <t>Nhân viên An toàn lao động</t>
+  </si>
+  <si>
+    <t>Cổng Văn Phòng Chính</t>
+  </si>
+  <si>
+    <t>HPDQ1 - KHU VỰC HỒ ĐIỀU HÒA (KHÔNG SỬ DỤNG)</t>
+  </si>
+  <si>
+    <t>Phiên dịch</t>
+  </si>
+  <si>
+    <t>Cổng NM.CTCK</t>
+  </si>
+  <si>
+    <t>HPDQ1 - TRẠM ĐIỆN + CỤM XỬ LÝ NƯỚC</t>
+  </si>
+  <si>
+    <t>Chức vụ khác ( công nhân )</t>
+  </si>
+  <si>
+    <t>Cổng 8 - HPDQ2</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY LUYỆN THÉP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyên gia </t>
+  </si>
+  <si>
+    <t>Cổng Bình Thuận 2</t>
+  </si>
+  <si>
+    <t>HPDQ2 - NHÀ MÁY CÁN</t>
+  </si>
+  <si>
+    <t>Tổ trưởng</t>
+  </si>
+  <si>
+    <t>Cổng Bình Thuận 1</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY CÁN</t>
+  </si>
+  <si>
+    <t>Đội trưởng</t>
+  </si>
+  <si>
+    <t>Cổng Bình Thuận 3</t>
+  </si>
+  <si>
+    <t>HPDQ2 - NHÀ MÁY LUYỆN THÉP</t>
+  </si>
+  <si>
+    <t>Giám Sát</t>
+  </si>
+  <si>
+    <t>Cổng Bình Thuận 4</t>
+  </si>
+  <si>
+    <t>HPDQ2 - TRẠM ĐIỆN + CỤM XỬ LÝ NƯỚC</t>
+  </si>
+  <si>
+    <t>Người được ủy quyền xử lý thủ tục</t>
+  </si>
+  <si>
+    <t>Cổng Bình Đông 1A</t>
+  </si>
+  <si>
+    <t>HPDQ2 - NHÀ MÁY LUYỆN GANG</t>
+  </si>
+  <si>
+    <t>Tài xế</t>
+  </si>
+  <si>
+    <t>Cổng Bình Đông 2</t>
+  </si>
+  <si>
+    <t>HPDQ2 - NHÀ MÁY THIÊU KẾT VÊ VIÊN</t>
+  </si>
+  <si>
+    <t>Cổng Cảng chuyên dụng</t>
+  </si>
+  <si>
+    <t>HPDQ2 - NHÀ MÁY VÔI XI MĂNG (KHÔNG SỬ DỤNG)</t>
+  </si>
+  <si>
+    <t>Cổng 12ha</t>
+  </si>
+  <si>
+    <t>HPDQ2 - NHÀ MÁY NHIỆT ĐIỆN</t>
+  </si>
+  <si>
+    <t>Cổng Bình Thuận 3A</t>
+  </si>
+  <si>
+    <t>HPDQ2 - NHÀ MÁY THIÊU KẾT VÊ VIÊN LÒ XOAY ĐÁY (KHÔNG SỬ DỤNG)</t>
+  </si>
+  <si>
+    <t>HPDQ2 - NHÀ MÁY LUYỆN CỐC</t>
+  </si>
+  <si>
+    <t>HPDQ2 - NHÀ MÁY NGUYÊN LIỆU</t>
+  </si>
+  <si>
+    <t>HPDQ2 - KHU VỰC DỰ CHỜ</t>
+  </si>
+  <si>
+    <t>KHU VỰC CẢNG TỔNG HỢP</t>
+  </si>
+  <si>
+    <t>KHU VỰC CẢNG CHUYÊN DỤNG</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY CƠ ĐIỆN 4</t>
+  </si>
+  <si>
+    <t>HPDQ2 - DÂY CHUYỀN CHẤT LƯỢNG CAO</t>
+  </si>
+  <si>
+    <t>KHU VỰC VĂN PHÒNG CHÍNH</t>
+  </si>
+  <si>
+    <t>KHU VỰC VĂN PHÒNG TẠM</t>
+  </si>
+  <si>
+    <t>KHU VỰC KHÁC</t>
+  </si>
+  <si>
+    <t>HPDQ1 - NHÀ MÁY CƠ ĐIỆN 3</t>
+  </si>
+  <si>
+    <t>Khu vực (chưa chốt dữ liệu)</t>
+  </si>
+  <si>
     <t>3. HPDQ1 - NHÀ MÁY LUYỆN GANG</t>
   </si>
   <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>Hành chính (HC)</t>
-  </si>
-  <si>
-    <t>Ca ngày (CN)</t>
-  </si>
-  <si>
-    <t>Ca đêm (CĐ)</t>
-  </si>
-  <si>
-    <t>Khu vực (chưa chốt dữ liệu)</t>
-  </si>
-  <si>
     <t>4. HPDQ1 - NHÀ MÁY NHIỆT ĐIỆN</t>
   </si>
   <si>
@@ -192,75 +400,25 @@
     <t>C</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">BM.03/QT.20
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ngày hiệu lực: 25/07/2024
-Lần sửa đổi: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>01</t>
-    </r>
-  </si>
-  <si>
-    <t>ĐỒNG DƯƠNG 
-QUÝ CHÂU</t>
-  </si>
-  <si>
-    <t>20/10/1995</t>
-  </si>
-  <si>
-    <t>051195010040</t>
-  </si>
-  <si>
-    <t>Hành Phước, Nghĩa Hành, Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>Chức vụ khác</t>
-  </si>
-  <si>
-    <t>0819349020</t>
-  </si>
-  <si>
-    <t>Đoàn Văn Dương</t>
-  </si>
-  <si>
-    <t>0345048885</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>18/04/2025</t>
-  </si>
-  <si>
-    <t>HPDQ2 - NHÀ MÁY LUYỆN GANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Cổng Trì Bình 1,	Cổng Bình Đông 2</t>
-  </si>
-  <si>
-    <t>Nhóm 4.3</t>
-  </si>
-  <si>
-    <t>Wisdri đường sắt</t>
+    <t>01/01/1998</t>
+  </si>
+  <si>
+    <t>Bình Sơn, Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>03251231258</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>HUỲNH VĂN LONG</t>
+  </si>
+  <si>
+    <t>212254844</t>
   </si>
 </sst>
 </file>
@@ -318,18 +476,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -343,18 +499,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,12 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0F3FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,17 +608,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE9ECEF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE9ECEF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE9ECEF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE9ECEF"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,8 +620,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -501,13 +699,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,55 +748,20 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,140 +782,45 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1709457</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7">
+    <xdr:ext cx="2219325" cy="838200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C91AE0F-271D-4B82-8EBD-3ABEEF7D8D29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2214282" cy="981075"/>
-          <a:chOff x="0" y="57150"/>
-          <a:chExt cx="2219325" cy="981075"/>
+          <a:ext cx="2219325" cy="838200"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D70A3F-EB19-48CA-87B4-D93E62AC9355}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="201821"/>
-            <a:ext cx="2219325" cy="836404"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>CÔNG</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> TY CỔ PHẦN THÉP HÒA PHÁT DUNG QUẤT</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="200" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="Picture 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10817690-66CD-4F9B-8C76-BA42624E6270}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="114300" y="57150"/>
-            <a:ext cx="1924050" cy="398145"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1012,424 +1087,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="9" customWidth="1"/>
-    <col min="8" max="9" width="28.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="9" customWidth="1"/>
-    <col min="13" max="14" width="10" style="9" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="83" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" style="9" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="9" customWidth="1"/>
-    <col min="21" max="23" width="9" style="9"/>
-    <col min="24" max="24" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="7.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="22" style="27" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="26" customWidth="1"/>
+    <col min="8" max="9" width="28.140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="26" customWidth="1"/>
+    <col min="13" max="14" width="10" style="26" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="83" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="26" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="26" customWidth="1"/>
+    <col min="21" max="23" width="9" style="26" customWidth="1"/>
+    <col min="24" max="24" width="0" style="26" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="26" customWidth="1"/>
+    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="27" max="27" width="9" style="26" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:26" s="18" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1" s="48"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="1:26" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+    </row>
+    <row r="4" spans="1:26" s="18" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="40" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="36" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="Q4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="R4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="S4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="T4" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="5" t="s">
+      <c r="X4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:26" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="I5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="J5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="K5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="L5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="M5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="N5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="35"/>
-      <c r="X4" s="4" t="s">
+      <c r="O5" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="13"/>
+      <c r="X5" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="24" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="1:24" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="6"/>
-      <c r="X6" s="11"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
-      <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="14"/>
-      <c r="X8" s="8"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="6"/>
-    </row>
+      <c r="B6" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="23"/>
+      <c r="X6" s="32"/>
+    </row>
+    <row r="7" spans="1:26" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="23"/>
+      <c r="X7" s="32"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
+      <c r="X8" s="25"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
+      <c r="X9" s="25"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="23"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="23"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="23"/>
+    </row>
+    <row r="44" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H3:J3"/>
+  <mergeCells count="17">
+    <mergeCell ref="T4:T5"/>
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="A2:T2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q14:Q1048576 Q1:Q4" xr:uid="{E7A21656-4460-4663-AA14-0834674789ED}">
-      <formula1>$X$3:$X$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2 R4:R5 Q15:Q1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$X$4:$X$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.4" right="0.23" top="0.47" bottom="0.47" header="0.31496062992126" footer="0.62"/>
@@ -1439,164 +1628,536 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FD10EF-70EC-4087-A1E1-0FF4CEC0B824}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="79" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entry" promptTitle="Ca" prompt="Please select Ca" sqref="A2:B4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>$A$2:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EB159C-4FFF-499D-85CE-4D80CA720FD9}">
   <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
+    <row r="1" spans="1:2" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
+      <c r="A2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
+      <c r="A3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
+      <c r="A4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>31</v>
+      <c r="B5" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>32</v>
+      <c r="B6" s="21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>33</v>
+      <c r="B7" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>34</v>
+      <c r="B8" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>35</v>
+      <c r="B9" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>36</v>
+      <c r="B10" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>37</v>
+      <c r="B11" s="21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>38</v>
+      <c r="B12" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>39</v>
+      <c r="B13" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>40</v>
+      <c r="B14" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>41</v>
+      <c r="B15" s="21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>42</v>
+      <c r="B16" s="21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>43</v>
+      <c r="B17" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>44</v>
+      <c r="B18" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>45</v>
+      <c r="B19" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>46</v>
+      <c r="B20" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>47</v>
+      <c r="B21" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>48</v>
+      <c r="B22" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="4" t="s">
-        <v>49</v>
+      <c r="A581" s="21" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="4" t="s">
-        <v>50</v>
+      <c r="A582" s="21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="4" t="s">
-        <v>51</v>
+      <c r="A583" s="21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="4" t="s">
-        <v>52</v>
+      <c r="A584" s="21" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entry" promptTitle="Ca" prompt="Please select Ca" sqref="A2:A4" xr:uid="{228F49F0-9AEA-4D04-B187-47D7FD851141}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entry" promptTitle="Ca" prompt="Please select Ca" sqref="A2:A4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$5:$A$7</formula1>
     </dataValidation>
   </dataValidations>
